--- a/data/jadwal_sidang/Jadwal Sidang Terjadwal 1 3 dan reg Juli 2020 v9 Juli 2020_pwd.xlsx
+++ b/data/jadwal_sidang/Jadwal Sidang Terjadwal 1 3 dan reg Juli 2020 v9 Juli 2020_pwd.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,86 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -419,7 +487,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Tanggal</t>
+          <t>Waktu</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -429,7 +497,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Skema sidang</t>
+          <t>Keterangan</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -512,7 +580,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3kQhCo</t>
+          <t>j481dK</t>
         </is>
       </c>
     </row>
@@ -586,7 +654,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>qmCLTU</t>
+          <t>IBrGgS</t>
         </is>
       </c>
     </row>
@@ -659,7 +727,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>HSGD4N</t>
+          <t>IYtWd3</t>
         </is>
       </c>
     </row>
@@ -732,7 +800,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>o2pwOk</t>
+          <t>Gfzgbt</t>
         </is>
       </c>
     </row>
@@ -806,7 +874,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>ijpzyJ</t>
+          <t>RVmwV5</t>
         </is>
       </c>
     </row>
@@ -877,7 +945,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>lurvbj</t>
+          <t>K1Uakr</t>
         </is>
       </c>
     </row>
@@ -946,7 +1014,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>LPu7hX</t>
+          <t>YzryIA</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1087,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>rDnbD3</t>
+          <t>xC9aNb</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1158,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>3Prn8e</t>
+          <t>iG7Sv4</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1227,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>jJXkbU</t>
+          <t>5BXNif</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1298,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>wW8v9E</t>
+          <t>kCLWo2</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1371,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>wE8Ubb</t>
+          <t>PDkX1a</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1445,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>28TBw1</t>
+          <t>AXpHDU</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1516,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>ggMqtz</t>
+          <t>tt5Qzs</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1587,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>RRY2TP</t>
+          <t>C40mEd</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1660,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>mrXpTo</t>
+          <t>wzQt5p</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1731,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>OcxmId</t>
+          <t>bdoXZX</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1800,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>KOHkNO</t>
+          <t>564ro2</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1873,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>AReLo5</t>
+          <t>VadDAS</t>
         </is>
       </c>
     </row>
@@ -1878,7 +1946,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>H7wN7H</t>
+          <t>snwml7</t>
         </is>
       </c>
     </row>
@@ -1947,7 +2015,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>az8BZp</t>
+          <t>ymYCib</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2086,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>vlZOYN</t>
+          <t>Q1UHUr</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2157,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>wjOkb2</t>
+          <t>jqT8DW</t>
         </is>
       </c>
     </row>
@@ -2162,7 +2230,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>AiSjJO</t>
+          <t>Whx2Hs</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2303,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>LEFjiw</t>
+          <t>e99O9X</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2374,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>vqYdDM</t>
+          <t>EHz3Fp</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2445,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>KkZZzG</t>
+          <t>6CGee8</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2518,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>VuKEAS</t>
+          <t>uv3MPF</t>
         </is>
       </c>
     </row>
@@ -2523,7 +2591,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>qRyat0</t>
+          <t>zTfuui</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2664,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>qkAZZZ</t>
+          <t>n8Vyyw</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2737,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>aZ0WPs</t>
+          <t>9F1yr2</t>
         </is>
       </c>
     </row>
@@ -2742,7 +2810,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>pe5jBe</t>
+          <t>tz550E</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2881,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1RX0Rq</t>
+          <t>ahTyUQ</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2954,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>XOrExp</t>
+          <t>T9Qp6a</t>
         </is>
       </c>
     </row>
@@ -2959,7 +3027,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>AB2UwC</t>
+          <t>YoXvw7</t>
         </is>
       </c>
     </row>
@@ -3032,7 +3100,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>REJkN6</t>
+          <t>LiCrjk</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3173,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>3cAY8A</t>
+          <t>HsjvYP</t>
         </is>
       </c>
     </row>
@@ -3178,7 +3246,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>s8Lf1g</t>
+          <t>GeEwAR</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3317,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>jwMXi1</t>
+          <t>GQ5Hoz</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3390,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>AXEy9s</t>
+          <t>eE4HNJ</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3461,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>hzwgUT</t>
+          <t>aC3QKf</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3534,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>DRWo1A</t>
+          <t>5KRjxo</t>
         </is>
       </c>
     </row>
@@ -3539,7 +3607,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>WWabHH</t>
+          <t>LbHvsP</t>
         </is>
       </c>
     </row>
@@ -3610,7 +3678,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>8wADs8</t>
+          <t>71MiDJ</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3751,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>shCAsR</t>
+          <t>YSHayv</t>
         </is>
       </c>
     </row>
@@ -3752,7 +3820,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>zraMCK</t>
+          <t>upMmTj</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3893,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Zg49xY</t>
+          <t>kR7A91</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3962,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>vyUmJN</t>
+          <t>BbN3kK</t>
         </is>
       </c>
     </row>
@@ -3967,7 +4035,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>5Yv17H</t>
+          <t>lu9XU3</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4108,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>GqaXex</t>
+          <t>CPIJeA</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4181,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>dcVBWU</t>
+          <t>yvH35M</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4252,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>hFxvuW</t>
+          <t>pqRlvc</t>
         </is>
       </c>
     </row>
@@ -4255,7 +4323,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>JdboPx</t>
+          <t>IT9XU3</t>
         </is>
       </c>
     </row>
@@ -4328,7 +4396,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>99pKbd</t>
+          <t>GRWNwk</t>
         </is>
       </c>
     </row>
@@ -4399,7 +4467,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>nAh4I2</t>
+          <t>WOjj2W</t>
         </is>
       </c>
     </row>
@@ -4470,7 +4538,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>c0UaGr</t>
+          <t>MWDzWh</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4611,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>iQecZ8</t>
+          <t>03HcKg</t>
         </is>
       </c>
     </row>
@@ -4612,7 +4680,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>5ENQm2</t>
+          <t>Ptlv3H</t>
         </is>
       </c>
     </row>
@@ -4685,7 +4753,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>wejnNa</t>
+          <t>hU6Zm1</t>
         </is>
       </c>
     </row>
@@ -4758,7 +4826,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>HObtuE</t>
+          <t>k4WZVF</t>
         </is>
       </c>
     </row>
@@ -4829,7 +4897,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>RUoX3b</t>
+          <t>J1d6Rg</t>
         </is>
       </c>
     </row>
@@ -4902,7 +4970,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Bhj5ox</t>
+          <t>JTShrn</t>
         </is>
       </c>
     </row>
@@ -4975,7 +5043,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>QLDVTe</t>
+          <t>9nNBLO</t>
         </is>
       </c>
     </row>
@@ -5048,7 +5116,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>nxYP4F</t>
+          <t>Q2QZ4p</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5189,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>reIkbp</t>
+          <t>oUeSZZ</t>
         </is>
       </c>
     </row>
@@ -5194,7 +5262,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>XNn0BI</t>
+          <t>vkroht</t>
         </is>
       </c>
     </row>
@@ -5263,7 +5331,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>G6uoDd</t>
+          <t>5znhSe</t>
         </is>
       </c>
     </row>
@@ -5336,7 +5404,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>KEkZTa</t>
+          <t>fKNCHt</t>
         </is>
       </c>
     </row>
@@ -5407,7 +5475,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>BSUuAV</t>
+          <t>tgZBD6</t>
         </is>
       </c>
     </row>
@@ -5480,7 +5548,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>lWEnHH</t>
+          <t>KFK8K6</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5619,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>V04sHj</t>
+          <t>GbBSMb</t>
         </is>
       </c>
     </row>
@@ -5622,7 +5690,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>zwSFZ1</t>
+          <t>wYbNrW</t>
         </is>
       </c>
     </row>
@@ -5695,7 +5763,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>61AFgG</t>
+          <t>HkuZNG</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5834,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>wUmbYH</t>
+          <t>FBnMRL</t>
         </is>
       </c>
     </row>
@@ -5839,7 +5907,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>X9h29Z</t>
+          <t>GqyhT4</t>
         </is>
       </c>
     </row>
@@ -5912,7 +5980,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>bUojnp</t>
+          <t>5Ivf4T</t>
         </is>
       </c>
     </row>
@@ -5983,7 +6051,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>6rv3oP</t>
+          <t>0ZWBjG</t>
         </is>
       </c>
     </row>
@@ -6056,7 +6124,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>4iMlIU</t>
+          <t>tCfHcR</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6197,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>9W6MsP</t>
+          <t>06wPaA</t>
         </is>
       </c>
     </row>
@@ -6202,7 +6270,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>ueQow7</t>
+          <t>9aAoCq</t>
         </is>
       </c>
     </row>
@@ -6275,7 +6343,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>EvNTEu</t>
+          <t>VEw7O6</t>
         </is>
       </c>
     </row>
@@ -6346,7 +6414,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>06aZuz</t>
+          <t>WkcGbU</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6485,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Fnb9AE</t>
+          <t>wf7VOS</t>
         </is>
       </c>
     </row>
@@ -6488,7 +6556,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>hUoy3C</t>
+          <t>4bH6bo</t>
         </is>
       </c>
     </row>
@@ -6561,7 +6629,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>B7ecFR</t>
+          <t>4hyaZY</t>
         </is>
       </c>
     </row>
@@ -6632,7 +6700,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>tXCiqO</t>
+          <t>hgpoR7</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6773,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>SCFB3H</t>
+          <t>u4I3we</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6842,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>OF7ce1</t>
+          <t>0RfOMx</t>
         </is>
       </c>
     </row>
@@ -6843,7 +6911,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>WttUhh</t>
+          <t>0WAfSW</t>
         </is>
       </c>
     </row>
@@ -6912,7 +6980,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>FpgKto</t>
+          <t>Z9HTKW</t>
         </is>
       </c>
     </row>
@@ -6985,7 +7053,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>tZHpWW</t>
+          <t>5VjCOK</t>
         </is>
       </c>
     </row>
@@ -7058,7 +7126,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>KuBGFL</t>
+          <t>W151gW</t>
         </is>
       </c>
     </row>
@@ -7131,7 +7199,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>wy0S69</t>
+          <t>BquEUW</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7272,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>TECa4Q</t>
+          <t>GfW5Rb</t>
         </is>
       </c>
     </row>
@@ -7277,7 +7345,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>XKkmu5</t>
+          <t>sAeeNL</t>
         </is>
       </c>
     </row>
@@ -7348,7 +7416,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>UHE1Aa</t>
+          <t>p7R6uc</t>
         </is>
       </c>
     </row>
@@ -7417,7 +7485,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>cQT2LC</t>
+          <t>1sm6Vy</t>
         </is>
       </c>
     </row>
@@ -7486,7 +7554,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>8c5r5c</t>
+          <t>UYPA0T</t>
         </is>
       </c>
     </row>
@@ -7558,7 +7626,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>kZOyzf</t>
+          <t>Lk4F5I</t>
         </is>
       </c>
     </row>
@@ -7629,7 +7697,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>JndCxH</t>
+          <t>fGw3tV</t>
         </is>
       </c>
     </row>
@@ -7702,7 +7770,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>tpHZRl</t>
+          <t>nX2mOJ</t>
         </is>
       </c>
     </row>
@@ -7773,7 +7841,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>dQ3AdY</t>
+          <t>WxgOWk</t>
         </is>
       </c>
     </row>
@@ -7846,7 +7914,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>t9rBLi</t>
+          <t>eCL4c1</t>
         </is>
       </c>
     </row>
@@ -7919,7 +7987,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>06XvGU</t>
+          <t>ojt6ro</t>
         </is>
       </c>
     </row>
@@ -7992,7 +8060,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>0riTVW</t>
+          <t>FEjKTG</t>
         </is>
       </c>
     </row>
@@ -8063,7 +8131,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Y3kv2P</t>
+          <t>sYCyP5</t>
         </is>
       </c>
     </row>
@@ -8134,7 +8202,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>82kNNL</t>
+          <t>19VySL</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8273,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>VzqaMT</t>
+          <t>153u2W</t>
         </is>
       </c>
     </row>
@@ -8278,7 +8346,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>InNQez</t>
+          <t>DIrFO1</t>
         </is>
       </c>
     </row>
@@ -8351,7 +8419,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>XeAdsC</t>
+          <t>vjal7c</t>
         </is>
       </c>
     </row>
@@ -8422,7 +8490,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>NOyJya</t>
+          <t>Y0bUjW</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8563,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>RIoQVH</t>
+          <t>SOgaqE</t>
         </is>
       </c>
     </row>
@@ -8566,7 +8634,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>nwg44n</t>
+          <t>V1h9eF</t>
         </is>
       </c>
     </row>
@@ -8639,7 +8707,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>VRJyqQ</t>
+          <t>iZujFx</t>
         </is>
       </c>
     </row>
@@ -8710,7 +8778,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>6exf1Q</t>
+          <t>ebID5k</t>
         </is>
       </c>
     </row>
@@ -8783,7 +8851,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>sTChug</t>
+          <t>5IjybH</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8924,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>mGYO2P</t>
+          <t>mrCuHl</t>
         </is>
       </c>
     </row>
@@ -8929,7 +8997,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>rHM42w</t>
+          <t>aqOyBd</t>
         </is>
       </c>
     </row>
@@ -9002,7 +9070,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>8vTQtl</t>
+          <t>Py8sc8</t>
         </is>
       </c>
     </row>
@@ -9075,7 +9143,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>XKjtVj</t>
+          <t>OMP5g1</t>
         </is>
       </c>
     </row>
@@ -9146,7 +9214,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>aVjVEs</t>
+          <t>vc7n46</t>
         </is>
       </c>
     </row>
@@ -9215,7 +9283,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>EB27Wb</t>
+          <t>xxMiE6</t>
         </is>
       </c>
     </row>
@@ -9284,7 +9352,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>tb0YwW</t>
+          <t>kCc5AL</t>
         </is>
       </c>
     </row>
@@ -9356,7 +9424,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>tEihot</t>
+          <t>TDKpGU</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9497,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>ZvH0eF</t>
+          <t>Cx0WwT</t>
         </is>
       </c>
     </row>
@@ -9502,7 +9570,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>MfFjpJ</t>
+          <t>uZJGVT</t>
         </is>
       </c>
     </row>
@@ -9575,7 +9643,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>EzXsmB</t>
+          <t>UpBdK9</t>
         </is>
       </c>
     </row>
@@ -9646,7 +9714,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>E3AqT4</t>
+          <t>hJsIRu</t>
         </is>
       </c>
     </row>
@@ -9717,7 +9785,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>h4b4pp</t>
+          <t>vHZIvB</t>
         </is>
       </c>
     </row>
@@ -9790,7 +9858,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>PqFj1U</t>
+          <t>VlqINy</t>
         </is>
       </c>
     </row>
@@ -9861,7 +9929,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>bu7cPR</t>
+          <t>xUfg9D</t>
         </is>
       </c>
     </row>
@@ -9932,7 +10000,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>tP9hoz</t>
+          <t>ncZFqQ</t>
         </is>
       </c>
     </row>
@@ -10003,7 +10071,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>qJt4wm</t>
+          <t>3ddUeY</t>
         </is>
       </c>
     </row>
@@ -10076,7 +10144,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>ryQybw</t>
+          <t>rqoQbB</t>
         </is>
       </c>
     </row>
@@ -10147,7 +10215,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>c3PnL7</t>
+          <t>NBEBYY</t>
         </is>
       </c>
     </row>
@@ -10220,7 +10288,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>0ooVV0</t>
+          <t>I2rUVG</t>
         </is>
       </c>
     </row>
@@ -10291,7 +10359,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>kVIIOf</t>
+          <t>lHiaFK</t>
         </is>
       </c>
     </row>
@@ -10362,7 +10430,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>3AOCX4</t>
+          <t>KfPmNE</t>
         </is>
       </c>
     </row>
@@ -10435,7 +10503,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>bO9uhg</t>
+          <t>lgLt32</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10574,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>BIGkdM</t>
+          <t>a2k19I</t>
         </is>
       </c>
     </row>
@@ -10577,7 +10645,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>eabImJ</t>
+          <t>AuCM3S</t>
         </is>
       </c>
     </row>
@@ -10650,7 +10718,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>8Vf5RA</t>
+          <t>J1EpKq</t>
         </is>
       </c>
     </row>
@@ -10723,7 +10791,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>yWKURD</t>
+          <t>W13SrC</t>
         </is>
       </c>
     </row>
@@ -10796,7 +10864,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>pYhvZc</t>
+          <t>pNHaao</t>
         </is>
       </c>
     </row>
@@ -10867,7 +10935,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>DvaKqy</t>
+          <t>xF64OD</t>
         </is>
       </c>
     </row>
@@ -10938,7 +11006,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>XdIa7L</t>
+          <t>0l7fDw</t>
         </is>
       </c>
     </row>
@@ -11011,7 +11079,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>RkNV3q</t>
+          <t>VVinYB</t>
         </is>
       </c>
     </row>
@@ -11084,7 +11152,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>MzNj37</t>
+          <t>faM6sA</t>
         </is>
       </c>
     </row>
@@ -11155,7 +11223,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>m5YYug</t>
+          <t>cOcHlV</t>
         </is>
       </c>
     </row>
@@ -11226,7 +11294,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>K6Xcp6</t>
+          <t>WBAf3Z</t>
         </is>
       </c>
     </row>
@@ -11300,7 +11368,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>f0RKHU</t>
+          <t>O5FXzj</t>
         </is>
       </c>
     </row>
@@ -11369,7 +11437,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>lnmfvh</t>
+          <t>5y1jtM</t>
         </is>
       </c>
     </row>
@@ -11442,7 +11510,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>7RXvZI</t>
+          <t>ifZDaJ</t>
         </is>
       </c>
     </row>
@@ -11513,7 +11581,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>4z6vW6</t>
+          <t>9T1XbH</t>
         </is>
       </c>
     </row>
@@ -11586,7 +11654,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>TamS55</t>
+          <t>YpNAk9</t>
         </is>
       </c>
     </row>
@@ -11657,7 +11725,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>fRiR4T</t>
+          <t>7NAhLa</t>
         </is>
       </c>
     </row>
@@ -11730,7 +11798,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>cI3RqI</t>
+          <t>jru8Hl</t>
         </is>
       </c>
     </row>
@@ -11803,7 +11871,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>RELgdd</t>
+          <t>ASXpcV</t>
         </is>
       </c>
     </row>
@@ -11872,7 +11940,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>L2a9WZ</t>
+          <t>n6FuFg</t>
         </is>
       </c>
     </row>
@@ -11945,7 +12013,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>JRCzTG</t>
+          <t>9eym02</t>
         </is>
       </c>
     </row>
@@ -12016,7 +12084,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>0kA89S</t>
+          <t>zMoecD</t>
         </is>
       </c>
     </row>
@@ -12087,7 +12155,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>HlhQhX</t>
+          <t>U5nI2c</t>
         </is>
       </c>
     </row>
@@ -12160,7 +12228,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>aAKgfw</t>
+          <t>mhgz3S</t>
         </is>
       </c>
     </row>
@@ -12233,7 +12301,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>BJJz5P</t>
+          <t>koCqNo</t>
         </is>
       </c>
     </row>
@@ -12306,7 +12374,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>TjEFrv</t>
+          <t>hK2WkI</t>
         </is>
       </c>
     </row>
@@ -12379,7 +12447,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>9PAFXD</t>
+          <t>q08t1d</t>
         </is>
       </c>
     </row>
@@ -12451,7 +12519,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>bGF8MB</t>
+          <t>WpVvpb</t>
         </is>
       </c>
     </row>
@@ -12524,7 +12592,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>DlAX8K</t>
+          <t>ePORWe</t>
         </is>
       </c>
     </row>
@@ -12595,7 +12663,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>cCRKLM</t>
+          <t>IPFQHQ</t>
         </is>
       </c>
     </row>
@@ -12667,7 +12735,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>DXzYWy</t>
+          <t>pbx70c</t>
         </is>
       </c>
     </row>
@@ -12740,7 +12808,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>nsjcaa</t>
+          <t>VsOCsD</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12877,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>k5YWPq</t>
+          <t>iweO8F</t>
         </is>
       </c>
     </row>
@@ -12878,7 +12946,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>JapNQn</t>
+          <t>AzyCoG</t>
         </is>
       </c>
     </row>
@@ -12951,7 +13019,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>qKfwjb</t>
+          <t>COWdyl</t>
         </is>
       </c>
     </row>
@@ -13024,7 +13092,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>1vXJd0</t>
+          <t>31V9tE</t>
         </is>
       </c>
     </row>
@@ -13095,7 +13163,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>rDCHjY</t>
+          <t>r8FpqL</t>
         </is>
       </c>
     </row>
@@ -13168,7 +13236,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>UZpO0a</t>
+          <t>EahZXb</t>
         </is>
       </c>
     </row>
@@ -13241,7 +13309,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>fj6P4G</t>
+          <t>YeVb9s</t>
         </is>
       </c>
     </row>
@@ -13315,7 +13383,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>58UHZY</t>
+          <t>3Ccmig</t>
         </is>
       </c>
     </row>
@@ -13388,7 +13456,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>bxiug9</t>
+          <t>GuKJk4</t>
         </is>
       </c>
     </row>
@@ -13459,7 +13527,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>um6rQP</t>
+          <t>ngNYTF</t>
         </is>
       </c>
     </row>
@@ -13532,7 +13600,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>YzqXnH</t>
+          <t>VgmXnJ</t>
         </is>
       </c>
     </row>
@@ -13605,7 +13673,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>GztFAS</t>
+          <t>U49ce6</t>
         </is>
       </c>
     </row>
@@ -13676,7 +13744,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>OmcL44</t>
+          <t>x61FJM</t>
         </is>
       </c>
     </row>
@@ -13749,7 +13817,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>UV4Q3D</t>
+          <t>Psk9P7</t>
         </is>
       </c>
     </row>
@@ -13820,7 +13888,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>T6lTmK</t>
+          <t>LdcUcp</t>
         </is>
       </c>
     </row>
@@ -13893,7 +13961,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>DzkX9y</t>
+          <t>lIMzrj</t>
         </is>
       </c>
     </row>
@@ -13964,7 +14032,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>IhtwbO</t>
+          <t>KYEyg0</t>
         </is>
       </c>
     </row>
@@ -14037,7 +14105,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>q5ZvDC</t>
+          <t>BFzpOr</t>
         </is>
       </c>
     </row>
@@ -14110,7 +14178,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>YIzDIo</t>
+          <t>0vmiWN</t>
         </is>
       </c>
     </row>
@@ -14181,7 +14249,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>vs8a9T</t>
+          <t>sdAu92</t>
         </is>
       </c>
     </row>
@@ -14252,7 +14320,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>cRkUGC</t>
+          <t>I7SBlt</t>
         </is>
       </c>
     </row>
@@ -14323,7 +14391,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>3u8bnF</t>
+          <t>e9oZuz</t>
         </is>
       </c>
     </row>
@@ -14396,7 +14464,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>h9WuXD</t>
+          <t>XGSrm4</t>
         </is>
       </c>
     </row>
@@ -14470,7 +14538,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>KrBo5l</t>
+          <t>ecEyyS</t>
         </is>
       </c>
     </row>
@@ -14541,7 +14609,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>LYCogq</t>
+          <t>rrhYYV</t>
         </is>
       </c>
     </row>
@@ -14614,7 +14682,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>YVOfSG</t>
+          <t>1lu1SZ</t>
         </is>
       </c>
     </row>
@@ -14685,7 +14753,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>3evd3v</t>
+          <t>yXBBnF</t>
         </is>
       </c>
     </row>
@@ -14756,7 +14824,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>61nYYL</t>
+          <t>JjFxCq</t>
         </is>
       </c>
     </row>
@@ -14825,7 +14893,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Y6g1WV</t>
+          <t>NT0W1y</t>
         </is>
       </c>
     </row>
@@ -14898,7 +14966,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>uZ0Lu2</t>
+          <t>9KD6yK</t>
         </is>
       </c>
     </row>
@@ -14971,7 +15039,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>St4JZ5</t>
+          <t>3Miqvu</t>
         </is>
       </c>
     </row>
@@ -15044,7 +15112,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>v3tXSW</t>
+          <t>KpW3zn</t>
         </is>
       </c>
     </row>
@@ -15113,7 +15181,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>8yR4KP</t>
+          <t>tJsvK9</t>
         </is>
       </c>
     </row>
@@ -15182,7 +15250,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>9iva2t</t>
+          <t>eh21K7</t>
         </is>
       </c>
     </row>
@@ -15253,7 +15321,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>c8iuMT</t>
+          <t>OM77FB</t>
         </is>
       </c>
     </row>
@@ -15326,7 +15394,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>41VED9</t>
+          <t>ldbqLz</t>
         </is>
       </c>
     </row>
@@ -15399,7 +15467,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>i3JJso</t>
+          <t>YSO40r</t>
         </is>
       </c>
     </row>
@@ -15472,7 +15540,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>uMXA7s</t>
+          <t>WSMBjz</t>
         </is>
       </c>
     </row>
@@ -15545,7 +15613,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>nxTCUQ</t>
+          <t>dOP8Pt</t>
         </is>
       </c>
     </row>
@@ -15618,7 +15686,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>lzAf2y</t>
+          <t>1VhVPQ</t>
         </is>
       </c>
     </row>
@@ -15690,7 +15758,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>KuP8Cg</t>
+          <t>lD8Zfl</t>
         </is>
       </c>
     </row>
@@ -15761,7 +15829,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>mLza5g</t>
+          <t>M9k3eC</t>
         </is>
       </c>
     </row>
@@ -15832,7 +15900,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>iznNJQ</t>
+          <t>wJFTlE</t>
         </is>
       </c>
     </row>
@@ -15905,7 +15973,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>D7lAaL</t>
+          <t>00xorV</t>
         </is>
       </c>
     </row>
@@ -15978,7 +16046,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>tVutMI</t>
+          <t>l7K5c5</t>
         </is>
       </c>
     </row>
@@ -16051,7 +16119,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>wgfvUT</t>
+          <t>enO1We</t>
         </is>
       </c>
     </row>
@@ -16122,7 +16190,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>3gVaff</t>
+          <t>wWMqQd</t>
         </is>
       </c>
     </row>
@@ -16193,7 +16261,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Q7bFhf</t>
+          <t>h0g1jz</t>
         </is>
       </c>
     </row>
@@ -16264,7 +16332,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>nACsVR</t>
+          <t>mgwGj5</t>
         </is>
       </c>
     </row>
@@ -16337,7 +16405,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>loNekX</t>
+          <t>F5SoYK</t>
         </is>
       </c>
     </row>
@@ -16410,7 +16478,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>G1hUzz</t>
+          <t>GKmOoG</t>
         </is>
       </c>
     </row>
@@ -16483,7 +16551,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>yOqH3C</t>
+          <t>r5a4A9</t>
         </is>
       </c>
     </row>
@@ -16556,7 +16624,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Dw2FYO</t>
+          <t>bgycvg</t>
         </is>
       </c>
     </row>
@@ -16629,7 +16697,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>huahkK</t>
+          <t>UZiKNq</t>
         </is>
       </c>
     </row>
@@ -16700,7 +16768,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>nOBRL9</t>
+          <t>EDXhVa</t>
         </is>
       </c>
     </row>
@@ -16773,7 +16841,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>x8j9W7</t>
+          <t>Op7DoB</t>
         </is>
       </c>
     </row>
@@ -16847,7 +16915,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>HOix2J</t>
+          <t>DJw7LJ</t>
         </is>
       </c>
     </row>
@@ -16916,7 +16984,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>bjP793</t>
+          <t>b5FyFH</t>
         </is>
       </c>
     </row>
@@ -16990,7 +17058,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>eGCIHt</t>
+          <t>lh5OPA</t>
         </is>
       </c>
     </row>
@@ -17063,7 +17131,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>gmblZo</t>
+          <t>WmMfXO</t>
         </is>
       </c>
     </row>
@@ -17134,7 +17202,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>HEl2c6</t>
+          <t>YuCHqC</t>
         </is>
       </c>
     </row>
@@ -17203,7 +17271,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>UXOZrD</t>
+          <t>ngvhv2</t>
         </is>
       </c>
     </row>
@@ -17272,7 +17340,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>xkl2Ah</t>
+          <t>lZcCct</t>
         </is>
       </c>
     </row>
@@ -17345,7 +17413,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>5HtU0x</t>
+          <t>w2dt25</t>
         </is>
       </c>
     </row>
@@ -17417,7 +17485,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>N63YpR</t>
+          <t>coZZ6q</t>
         </is>
       </c>
     </row>
@@ -17490,7 +17558,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Jaidun</t>
+          <t>hAH0QK</t>
         </is>
       </c>
     </row>
@@ -17563,7 +17631,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>chC8gn</t>
+          <t>cdovdV</t>
         </is>
       </c>
     </row>
@@ -17636,7 +17704,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>ImtphX</t>
+          <t>ZptLC4</t>
         </is>
       </c>
     </row>
@@ -17705,7 +17773,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>k3b2rD</t>
+          <t>ZxoDCm</t>
         </is>
       </c>
     </row>
@@ -17776,7 +17844,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>YOlRR9</t>
+          <t>ulKLZh</t>
         </is>
       </c>
     </row>
@@ -17847,7 +17915,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>nQUbg0</t>
+          <t>EGIuLz</t>
         </is>
       </c>
     </row>
@@ -17920,7 +17988,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>dVTvzi</t>
+          <t>mTqgXn</t>
         </is>
       </c>
     </row>
@@ -17993,7 +18061,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>5yBfi9</t>
+          <t>Ss8sFg</t>
         </is>
       </c>
     </row>
@@ -18066,7 +18134,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>MSCrqu</t>
+          <t>2jqjZK</t>
         </is>
       </c>
     </row>
@@ -18139,7 +18207,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>G2ydqg</t>
+          <t>jxcKFS</t>
         </is>
       </c>
     </row>
@@ -18210,7 +18278,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>ZXRpUC</t>
+          <t>6B55O8</t>
         </is>
       </c>
     </row>
@@ -18283,7 +18351,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>ACKRD8</t>
+          <t>aS4OqW</t>
         </is>
       </c>
     </row>
@@ -18356,7 +18424,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>JGp6bi</t>
+          <t>sBtGUF</t>
         </is>
       </c>
     </row>
@@ -18429,7 +18497,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>3owte0</t>
+          <t>SX5G1S</t>
         </is>
       </c>
     </row>
@@ -18500,7 +18568,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>IglZKc</t>
+          <t>QZKgqD</t>
         </is>
       </c>
     </row>
@@ -18573,7 +18641,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>iTa1Sr</t>
+          <t>idRrmF</t>
         </is>
       </c>
     </row>
@@ -18644,7 +18712,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>iko9lg</t>
+          <t>hVeyzh</t>
         </is>
       </c>
     </row>
@@ -18715,7 +18783,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2ngGPv</t>
+          <t>eUu4nk</t>
         </is>
       </c>
     </row>
@@ -18788,7 +18856,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>xdrRpR</t>
+          <t>rex2xB</t>
         </is>
       </c>
     </row>
@@ -18859,7 +18927,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>OrpBuX</t>
+          <t>8YzItq</t>
         </is>
       </c>
     </row>
@@ -18932,7 +19000,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Q4RZcD</t>
+          <t>1yWvIz</t>
         </is>
       </c>
     </row>
@@ -19005,7 +19073,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>xvueBf</t>
+          <t>eieYQZ</t>
         </is>
       </c>
     </row>
@@ -19078,7 +19146,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>LmLSYJ</t>
+          <t>pAajZS</t>
         </is>
       </c>
     </row>
@@ -19149,7 +19217,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>lU4kas</t>
+          <t>LrtG8D</t>
         </is>
       </c>
     </row>
@@ -19220,7 +19288,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>5NzZZR</t>
+          <t>tcCdws</t>
         </is>
       </c>
     </row>
@@ -19293,7 +19361,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2hQDQF</t>
+          <t>MZpExs</t>
         </is>
       </c>
     </row>
@@ -19366,7 +19434,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>HlCbmv</t>
+          <t>hwTIcZ</t>
         </is>
       </c>
     </row>
@@ -19435,7 +19503,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2imFK6</t>
+          <t>5vRrul</t>
         </is>
       </c>
     </row>
@@ -19508,7 +19576,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>o0vcZk</t>
+          <t>wVetFt</t>
         </is>
       </c>
     </row>
@@ -19582,7 +19650,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>fQg08A</t>
+          <t>PXBt4X</t>
         </is>
       </c>
     </row>
@@ -19655,7 +19723,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>eFIZpD</t>
+          <t>38TMo0</t>
         </is>
       </c>
     </row>
@@ -19728,7 +19796,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>z3uHzh</t>
+          <t>1ML15m</t>
         </is>
       </c>
     </row>
@@ -19801,7 +19869,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>T4V0Ce</t>
+          <t>qfeeDi</t>
         </is>
       </c>
     </row>
@@ -19874,7 +19942,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>AiM1ii</t>
+          <t>mIxTv4</t>
         </is>
       </c>
     </row>
@@ -19947,7 +20015,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>GL27nn</t>
+          <t>s6J4Cy</t>
         </is>
       </c>
     </row>
@@ -20018,7 +20086,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>q3F3Ty</t>
+          <t>u2fD72</t>
         </is>
       </c>
     </row>
@@ -20087,11 +20155,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>LeMVsX</t>
+          <t>gAIzH3</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>